--- a/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process GL Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A2675-F94E-4085-89F8-7225A506EC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50CBE2-A43E-4B33-8ED1-92A479D1FF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -213,9 +213,6 @@
     <t>strMacroName</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
     <t>AR_OPEN</t>
   </si>
   <si>
@@ -249,12 +246,6 @@
     <t>strGLReportSheetName</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\Output</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\Output\</t>
-  </si>
-  <si>
     <t>Sheet1</t>
   </si>
   <si>
@@ -270,23 +261,47 @@
     <t>strTemplateName</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\Temp</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\Templates</t>
-  </si>
-  <si>
     <t>strGLFinalReportPath</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\Input</t>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process GL Report\Data\Temp</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process GL Report\Data\Input</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\Templates</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Application\</t>
+  </si>
+  <si>
+    <t>strFileToDeletePath1</t>
+  </si>
+  <si>
+    <t>strFileToDeletePath2</t>
+  </si>
+  <si>
+    <t>strFileToDeletePath3</t>
+  </si>
+  <si>
+    <t>strFileToDeletePath4</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Original Reports</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Retrieve GL Bank Report\Data\Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,13 +337,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -351,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -361,8 +369,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -682,8 +688,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -753,7 +759,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +799,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,20 +807,20 @@
         <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>60</v>
@@ -822,10 +828,10 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -840,8 +846,8 @@
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
+      <c r="B16" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,12 +855,12 @@
         <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6">
         <v>30000</v>
@@ -862,66 +868,86 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process GL Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50CBE2-A43E-4B33-8ED1-92A479D1FF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C618696F-9EC0-4A44-A100-37ACC661E0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -295,6 +295,21 @@
   </si>
   <si>
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Retrieve GL Bank Report\Data\Input</t>
+  </si>
+  <si>
+    <t>strFalloutApplicationFinalPath</t>
+  </si>
+  <si>
+    <t>strFalloutReportsFinalPath</t>
+  </si>
+  <si>
+    <t>strFalloutReportsPath</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Reports</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Application</t>
   </si>
 </sst>
 </file>
@@ -688,8 +703,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -950,24 +965,46 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1916,9 +1953,11 @@
     <hyperlink ref="B19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B24" r:id="rId6" xr:uid="{876EB9B8-5F6B-49B7-A73D-45948A61C41B}"/>
+    <hyperlink ref="B33" r:id="rId7" xr:uid="{576FF83E-8207-48A5-BE13-6426A2C6F52E}"/>
+    <hyperlink ref="B34" r:id="rId8" xr:uid="{98651D41-EEA7-4603-9418-4A6EEEEB8872}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Process GL Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C618696F-9EC0-4A44-A100-37ACC661E0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7350F-30FD-4756-B75A-B7F6C540A427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -310,6 +310,30 @@
   </si>
   <si>
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Application</t>
+  </si>
+  <si>
+    <t>strToEmailAddress</t>
+  </si>
+  <si>
+    <t>strEmailPort</t>
+  </si>
+  <si>
+    <t>strEmailServer</t>
+  </si>
+  <si>
+    <t>strCCEmailAddress</t>
+  </si>
+  <si>
+    <t>Ess.LUX-7.1_EmailPort</t>
+  </si>
+  <si>
+    <t>Ess.LUX-7.1_ToEmailAddress</t>
+  </si>
+  <si>
+    <t>Ess.LUX-7.1_EmailServer</t>
+  </si>
+  <si>
+    <t>Ess.LUX-7.1_CCEmailAddress</t>
   </si>
 </sst>
 </file>
@@ -374,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -385,6 +409,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,7 +728,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -3181,8 +3206,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3224,10 +3249,38 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4225,5 +4278,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.1 - Process GL Report/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process GL Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABA73C-679A-4563-8915-AF74495351EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121376BE-2291-4785-8EF6-54983031BCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Reports</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Application</t>
   </si>
   <si>
     <t>\\myemdrive_server.luxgroup.net\MyEMDrive\EYEMED\Departments\Finance\Collections-Cash Apply\Essilor Shared Services\ESS Cash Apply\Fallout\Fallout Application</t>
@@ -733,8 +730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" activeCellId="1" sqref="A32 B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,7 +997,7 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,7 +1005,7 @@
         <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3217,7 +3214,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3263,34 +3260,34 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
         <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
